--- a/TerVer/ргр_бином.xlsx
+++ b/TerVer/ргр_бином.xlsx
@@ -4,11 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="A">Лист4!$A$1:$A$500</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Вероятность</t>
   </si>
@@ -104,12 +110,57 @@
   <si>
     <t>γ(X)</t>
   </si>
+  <si>
+    <t>X        Y</t>
+  </si>
+  <si>
+    <t>M(Y)</t>
+  </si>
+  <si>
+    <t>М(X)</t>
+  </si>
+  <si>
+    <t>D(Y)</t>
+  </si>
+  <si>
+    <t>D(X)</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>M(XY)</t>
+  </si>
+  <si>
+    <t>xi * pi</t>
+  </si>
+  <si>
+    <t>COV(XY)</t>
+  </si>
+  <si>
+    <t>F(x,y)</t>
+  </si>
+  <si>
+    <t>МИН</t>
+  </si>
+  <si>
+    <t>МАКС</t>
+  </si>
+  <si>
+    <t>Карман</t>
+  </si>
+  <si>
+    <t>Еще</t>
+  </si>
+  <si>
+    <t>Частота</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +191,23 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +232,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -190,11 +262,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -207,6 +471,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -354,16 +648,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.54700815999999997</c:v>
+                  <c:v>0.63605599999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35619135999999996</c:v>
+                  <c:v>0.31063200000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6976959999999992E-2</c:v>
+                  <c:v>5.0568000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4393599999999956E-3</c:v>
+                  <c:v>2.7440000000000008E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,6 +1557,569 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Гистограмма</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Частота</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист4!$D$7:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-12,68332664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9,686159696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6,688992755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3,691825814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0,694658872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2,302508069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5,29967501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8,296841952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11,29400889</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14,29117583</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17,28834278</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Еще</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$E$7:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C01E-424C-B3E4-B7E8F5D129A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="445224944"/>
+        <c:axId val="445222976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="445224944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Карман</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="445222976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445222976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Частота</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="445224944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$F$7:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-11.184743166731298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.1875762254491455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.1904092841669911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.193242342884838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80392459839731556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8010915396794691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7982584809616231</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7954254222437758</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.79259236352593</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.789759304808083</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.786926246090236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$G$7:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.6729683036755472E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6729683036755472E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0075619644106571E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8684311250291533E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5385636920507041E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1400760849328351E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6071838661901245E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8054824241977263E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3364841518377736E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0009452455513322E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3345936607351094E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BCD-4F34-94D9-9596367E34C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="537320688"/>
+        <c:axId val="537320360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="537320688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537320360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="537320360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537320688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1343,6 +2200,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2356,6 +3253,509 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2419,6 +3819,71 @@
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2705,8 +4170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,27 +4233,27 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <f xml:space="preserve"> _xlfn.BINOM.DIST(F2,4,$B$1,FALSE)</f>
-        <v>0.54700815999999997</v>
+        <f xml:space="preserve"> _xlfn.BINOM.DIST(F2,3,$B$1,FALSE)</f>
+        <v>0.63605599999999995</v>
       </c>
       <c r="H2" s="3">
         <f xml:space="preserve"> $B$8</f>
-        <v>0.55846335999999996</v>
+        <v>0.4200000000000001</v>
       </c>
       <c r="I2" s="3">
         <f xml:space="preserve"> G2* (F2 - H2)^3</f>
-        <v>-9.5274759194398762E-2</v>
+        <v>-4.7124116928000032E-2</v>
       </c>
       <c r="J2" s="3">
         <f xml:space="preserve"> G2*( F2 - H2)^4</f>
-        <v>5.3207462142894818E-2</v>
+        <v>1.9792129109760019E-2</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <f xml:space="preserve"> _xlfn.BINOM.DIST(N2,4,$B$1,TRUE)</f>
-        <v>0.54700815999999997</v>
+        <f xml:space="preserve"> _xlfn.BINOM.DIST(N2,3,$B$1,TRUE)</f>
+        <v>0.63605599999999995</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2796,8 +4261,8 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <f xml:space="preserve"> _xlfn.BINOM.DIST(A3,4,$B$1,FALSE)</f>
-        <v>0.54700815999999997</v>
+        <f xml:space="preserve"> _xlfn.BINOM.DIST(A3,3,$B$1,FALSE)</f>
+        <v>0.63605599999999995</v>
       </c>
       <c r="D3">
         <f xml:space="preserve"> A3 * B3</f>
@@ -2811,27 +4276,27 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G5" si="0" xml:space="preserve"> _xlfn.BINOM.DIST(F3,4,$B$1,FALSE)</f>
-        <v>0.35619135999999996</v>
+        <f t="shared" ref="G3:G5" si="0" xml:space="preserve"> _xlfn.BINOM.DIST(F3,3,$B$1,FALSE)</f>
+        <v>0.31063200000000007</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H5" si="1" xml:space="preserve"> $B$8</f>
-        <v>0.55846335999999996</v>
+        <v>0.4200000000000001</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I5" si="2" xml:space="preserve"> G3* (F3 - H3)^3</f>
-        <v>3.0660810150903894E-2</v>
+        <v>6.0608030783999962E-2</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ref="J3:J5" si="3" xml:space="preserve"> G3*( F3 - H3)^4</f>
-        <v>1.3537871093708001E-2</v>
+        <v>3.5152657854719965E-2</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O5" si="4" xml:space="preserve"> _xlfn.BINOM.DIST(N3,4,$B$1,TRUE)</f>
-        <v>0.90319952000000003</v>
+        <f t="shared" ref="O3:O5" si="4" xml:space="preserve"> _xlfn.BINOM.DIST(N3,3,$B$1,TRUE)</f>
+        <v>0.94668799999999997</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2839,42 +4304,42 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B6" si="5" xml:space="preserve"> _xlfn.BINOM.DIST(A4,4,$B$1,FALSE)</f>
-        <v>0.35619135999999996</v>
+        <f t="shared" ref="B4:B6" si="5" xml:space="preserve"> _xlfn.BINOM.DIST(A4,3,$B$1,FALSE)</f>
+        <v>0.31063200000000007</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D6" si="6" xml:space="preserve"> A4 * B4</f>
-        <v>0.35619135999999996</v>
+        <v>0.31063200000000007</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E6" si="7" xml:space="preserve"> B4*A4^2</f>
-        <v>0.35619135999999996</v>
+        <v>0.31063200000000007</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>8.6976959999999992E-2</v>
+        <v>5.0568000000000009E-2</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>0.55846335999999996</v>
+        <v>0.4200000000000001</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="2"/>
-        <v>0.26054412254348536</v>
+        <v>0.19945596921599998</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="3"/>
-        <v>0.37558389898308409</v>
+        <v>0.31514043136127995</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4">
         <f t="shared" si="4"/>
-        <v>0.99017647999999991</v>
+        <v>0.99725599999999992</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2883,41 +4348,41 @@
       </c>
       <c r="B5">
         <f t="shared" si="5"/>
-        <v>8.6976959999999992E-2</v>
+        <v>5.0568000000000009E-2</v>
       </c>
       <c r="D5">
         <f t="shared" si="6"/>
-        <v>0.17395391999999998</v>
+        <v>0.10113600000000002</v>
       </c>
       <c r="E5">
         <f t="shared" si="7"/>
-        <v>0.34790783999999997</v>
+        <v>0.20227200000000004</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>9.4393599999999956E-3</v>
+        <v>2.7440000000000008E-3</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>0.55846335999999996</v>
+        <v>0.4200000000000001</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="2"/>
-        <v>0.13738277609143942</v>
+        <v>4.7124116928000018E-2</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="3"/>
-        <v>0.33542508153216527</v>
+        <v>0.12158022167424005</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
       <c r="O5">
         <f t="shared" si="4"/>
-        <v>0.99961583999999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2926,29 +4391,37 @@
       </c>
       <c r="B6">
         <f t="shared" si="5"/>
-        <v>9.4393599999999956E-3</v>
+        <v>2.7440000000000008E-3</v>
       </c>
       <c r="D6">
         <f t="shared" si="6"/>
-        <v>2.8318079999999989E-2</v>
+        <v>8.2320000000000032E-3</v>
       </c>
       <c r="E6">
         <f t="shared" si="7"/>
-        <v>8.4954239999999959E-2</v>
+        <v>2.4696000000000006E-2</v>
       </c>
       <c r="I6" s="5">
         <f xml:space="preserve"> SUM(I2:I5)</f>
-        <v>0.33331294959142987</v>
+        <v>0.26006399999999991</v>
       </c>
       <c r="J6" s="5">
         <f xml:space="preserve"> SUM(J2:J5)</f>
-        <v>0.77775431375185211</v>
+        <v>0.49166543999999995</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f xml:space="preserve"> SUM(B3:B6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f xml:space="preserve"> SUM(D4:D6)</f>
+        <v>0.4200000000000001</v>
+      </c>
       <c r="E7">
         <f xml:space="preserve"> SUM(E3:E6)</f>
-        <v>0.78905343999999988</v>
+        <v>0.53760000000000019</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2957,7 +4430,7 @@
       </c>
       <c r="B8" s="5">
         <f xml:space="preserve"> SUM(D3:D6)</f>
-        <v>0.55846335999999996</v>
+        <v>0.4200000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2966,7 +4439,7 @@
       </c>
       <c r="B9" s="5">
         <f xml:space="preserve"> E7 - B8^2</f>
-        <v>0.47717211553751032</v>
+        <v>0.36120000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2975,7 +4448,7 @@
       </c>
       <c r="B10" s="5">
         <f xml:space="preserve"> SQRT(B9)</f>
-        <v>0.69077645844188285</v>
+        <v>0.60099916805266884</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2984,7 +4457,7 @@
       </c>
       <c r="B11" s="5">
         <f xml:space="preserve"> $I$6</f>
-        <v>0.33331294959142987</v>
+        <v>0.26006399999999991</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2993,7 +4466,7 @@
       </c>
       <c r="B12" s="5">
         <f xml:space="preserve"> $J$6</f>
-        <v>0.77775431375185211</v>
+        <v>0.49166543999999995</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3063,7 +4536,7 @@
       </c>
       <c r="B18">
         <f xml:space="preserve"> B11 / B10^3</f>
-        <v>1.0112059152974118</v>
+        <v>1.1980049861514983</v>
       </c>
       <c r="K18">
         <v>-0.8</v>
@@ -3078,7 +4551,7 @@
       </c>
       <c r="B19">
         <f xml:space="preserve"> (B12 / B10 ^ 4) - 3</f>
-        <v>0.41579906046230786</v>
+        <v>0.7685492801771856</v>
       </c>
       <c r="K19">
         <v>-0.7</v>
@@ -3424,4 +4897,3044 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="25">
+        <f xml:space="preserve"> SUM(G2:I2)</f>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="25">
+        <f xml:space="preserve"> SUM(J2:L2) - H1^2</f>
+        <v>0.58749999999999991</v>
+      </c>
+      <c r="L1" s="15">
+        <f xml:space="preserve"> SQRT(K1)</f>
+        <v>0.76648548583779452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16">
+        <f xml:space="preserve"> C2 * C5</f>
+        <v>-0.2</v>
+      </c>
+      <c r="H2" s="19">
+        <f t="shared" ref="H2:I2" si="0" xml:space="preserve"> D2 * D5</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="17">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="J2" s="16">
+        <f xml:space="preserve"> C5* C2 ^ 2</f>
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="19">
+        <f t="shared" ref="K2:L2" si="1" xml:space="preserve"> D5* D2 ^ 2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="17">
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F3">
+        <f xml:space="preserve"> SUM(C3:E3)</f>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <f xml:space="preserve"> SUM(C4:E4)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <f xml:space="preserve"> SUM(C3:C4)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:E5" si="2" xml:space="preserve"> SUM(D3:D4)</f>
+        <v>0.35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="15">
+        <f xml:space="preserve"> B3 * F3</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <f xml:space="preserve"> SUM(B6:B7)</f>
+        <v>1.2</v>
+      </c>
+      <c r="B7" s="17">
+        <f xml:space="preserve"> B4 * F4</f>
+        <v>0.4</v>
+      </c>
+      <c r="G7">
+        <f xml:space="preserve"> A17 / (A9 * L1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="15">
+        <f xml:space="preserve">  F3 * B3 ^ 2</f>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <f xml:space="preserve"> SUM(B8:B9) - A7^2</f>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="B9" s="17">
+        <f xml:space="preserve">  F4 * B4 ^2</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f xml:space="preserve"> SQRT(A9)</f>
+        <v>0.40000000000000019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <f xml:space="preserve"> B11 *B12</f>
+        <v>-0.1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:F13" si="3" xml:space="preserve"> C11 *C12</f>
+        <v>-0.15</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <f xml:space="preserve"> SUM(B13:F13)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <f xml:space="preserve"> A15 - A7 * H1</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1.5356112119916361</v>
+      </c>
+      <c r="C1">
+        <f xml:space="preserve"> 1 + 3.322 *LOG10(500)</f>
+        <v>9.9659783544042551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4.5111652373889228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <f xml:space="preserve"> MIN(A)</f>
+        <v>-12.683326637372375</v>
+      </c>
+      <c r="E2">
+        <f xml:space="preserve"> D2 - 0.001</f>
+        <v>-12.684326637372374</v>
+      </c>
+      <c r="G2">
+        <f xml:space="preserve"> (D3 - D2 )/10</f>
+        <v>2.9969669412821531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.5986862561258022</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <f xml:space="preserve"> MAX(A)</f>
+        <v>17.286342775449157</v>
+      </c>
+      <c r="E3">
+        <f xml:space="preserve"> D3 + 0.001</f>
+        <v>17.287342775449158</v>
+      </c>
+      <c r="G3">
+        <f xml:space="preserve"> (E3 - E2 ) /10</f>
+        <v>2.9971669412821536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.9141317101893947E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7.8918536776909605</v>
+      </c>
+      <c r="D5">
+        <v>-12.683326637372375</v>
+      </c>
+      <c r="E5">
+        <f xml:space="preserve"> D5 + $G$3</f>
+        <v>-9.6861596960902219</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:M5" si="0" xml:space="preserve"> E5 + $G$3</f>
+        <v>-6.6889927548080683</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-3.6918258135259148</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-0.69465887224376122</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2.3025080690383923</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>5.2996750103205459</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>8.2968419516026994</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>11.294008892884854</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>14.291175834167007</v>
+      </c>
+      <c r="N5">
+        <f xml:space="preserve"> M5 + $G$3</f>
+        <v>17.288342775449159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.9705161119200056</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.5572709344269242</v>
+      </c>
+      <c r="D7" s="26">
+        <v>-12.683326637372375</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f xml:space="preserve"> D7 + $G$3/2</f>
+        <v>-11.184743166731298</v>
+      </c>
+      <c r="G7" s="26">
+        <f xml:space="preserve"> E7 /(500 * $G$3)</f>
+        <v>6.6729683036755472E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3.6144887265691068</v>
+      </c>
+      <c r="D8" s="26">
+        <v>-9.6861596960902219</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F17" si="1" xml:space="preserve"> D8 + $G$3/2</f>
+        <v>-8.1875762254491455</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" ref="G8:G17" si="2" xml:space="preserve"> E8 /(500 * $G$3)</f>
+        <v>6.6729683036755472E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.7637246451631654</v>
+      </c>
+      <c r="D9" s="26">
+        <v>-6.6889927548080683</v>
+      </c>
+      <c r="E9" s="27">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-5.1904092841669911</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="2"/>
+        <v>8.0075619644106571E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.050122940185247</v>
+      </c>
+      <c r="D10" s="26">
+        <v>-3.6918258135259148</v>
+      </c>
+      <c r="E10" s="27">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-2.193242342884838</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" si="2"/>
+        <v>1.8684311250291533E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8.2740460887434892</v>
+      </c>
+      <c r="D11" s="26">
+        <v>-0.69465887224376122</v>
+      </c>
+      <c r="E11" s="27">
+        <v>83</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.80392459839731556</v>
+      </c>
+      <c r="G11" s="26">
+        <f t="shared" si="2"/>
+        <v>5.5385636920507041E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-0.91153207601746544</v>
+      </c>
+      <c r="D12" s="26">
+        <v>2.3025080690383923</v>
+      </c>
+      <c r="E12" s="27">
+        <v>107</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>3.8010915396794691</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" si="2"/>
+        <v>7.1400760849328351E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.4591795509913936</v>
+      </c>
+      <c r="D13" s="26">
+        <v>5.2996750103205459</v>
+      </c>
+      <c r="E13" s="27">
+        <v>114</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>6.7982584809616231</v>
+      </c>
+      <c r="G13" s="26">
+        <f t="shared" si="2"/>
+        <v>7.6071838661901245E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12.107043297262862</v>
+      </c>
+      <c r="D14" s="26">
+        <v>8.2968419516026994</v>
+      </c>
+      <c r="E14" s="27">
+        <v>87</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>9.7954254222437758</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" si="2"/>
+        <v>5.8054824241977263E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-7.6814695755019784</v>
+      </c>
+      <c r="D15" s="26">
+        <v>11.294008892884854</v>
+      </c>
+      <c r="E15" s="27">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>12.79259236352593</v>
+      </c>
+      <c r="G15" s="26">
+        <f t="shared" si="2"/>
+        <v>3.3364841518377736E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8.0901462600450031</v>
+      </c>
+      <c r="D16" s="26">
+        <v>14.291175834167007</v>
+      </c>
+      <c r="E16" s="27">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>15.789759304808083</v>
+      </c>
+      <c r="G16" s="26">
+        <f t="shared" si="2"/>
+        <v>1.0009452455513322E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5.2481685846287291</v>
+      </c>
+      <c r="D17" s="26">
+        <v>17.288342775449159</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>18.786926246090236</v>
+      </c>
+      <c r="G17" s="26">
+        <f t="shared" si="2"/>
+        <v>1.3345936607351094E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12.041514204000123</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-3.3970787778089289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1.8690708354115486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3.7198423190857284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-2.9325657275621779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-0.55416887032333761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10.360472409345675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7.4800231080444064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2.0995490861678263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8.0933522288687527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-2.9909666560997721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.1163966822350631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-1.8183096623688471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4.7764477888704278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2.8659177435911261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4.5745456494187238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-0.7049971979286056</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5.4571136236772873</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-4.1906924858922139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.98142198415007442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4.1830991297756555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-1.9396135182178114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3.6854634193587117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2.0107653502491303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-1.756611815537326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>9.6673351284407545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-2.673052783095045</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2.977626430336386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>7.4743046601070091</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3.6727248091920046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8.7243141782237217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>17.286342775449157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>6.869081410812214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-0.53351197190931998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-2.7088755056611262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-3.1426931097230408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.9079697115812451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5.549467126300442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>10.005257884884486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4.220496415044181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1.017062807775801</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>6.5536743325792486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-9.2046913020312786</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7.9746176955522969</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>13.812527762027457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-4.8913217294029891</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3.1911018898681505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-6.4129518402041867</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3.9280654467147542</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>10.000153345870785</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6.1043555281939916</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>9.3849597609078046</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>4.3470014437189093</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.15677745371067431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-3.6506231632956769</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>9.9455381890293211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>8.7590796131989919</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5.2059339244151488</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>8.3534336075244937</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.99635475028480869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>10.68668542150408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>9.4626647144905291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3.8069150680967141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-5.277038432424888</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4.5006239204667509E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>6.408433713047998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>5.939975729532307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3.0801378519099671</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>10.943572200019844</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-2.2920881898899097</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>7.9011191549652722</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>8.67086999581079</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>11.528149919584394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-4.1298927650786936</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-0.16254045173991472</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3.5120966761751333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-0.52370079781394452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>10.005257884884486</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>10.412859304167796</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-3.26912424195325</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1.7052774486073758</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-0.3550577427376993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2.5470830072008539</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-3.3274683270719834</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>-4.4393710747244768</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>8.9194462664891034</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>6.2305820241163019</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2.7265717865957413</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>-1.4840248847322073</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>-0.85310841011232696</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1.8844535891985288</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>-2.2058226174267475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>9.1508330873039085</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4.8823698155756574</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1.872294781904202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4.1846736924780998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1.7924979905073997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>-5.8010665422189049</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>15.930831871926785</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>8.4473275667987764</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>4.4663839920103783</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>-2.8971409089281224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0.9286087636864977</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>9.867094271001406</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5.4071766802080674</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>6.6045776141691022</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>-0.89130718758678995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5.6594250357447891</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2.2840230333968066</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>11.274014362541493</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>7.3668819671438541</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>8.9086687542730942</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>8.2833911468042061</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2.7024360709474422</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>-2.3507164921029471</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>4.065018295776099</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0.9336109845462488</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>-2.7858869695337489</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>-0.55465772372554056</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>-2.3203052630124148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>-0.71507553609262686</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2.0084290857339511</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2.4013137438741978</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>-1.6724835556233302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>-2.5368332141370047</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>4.986666120501468</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>-4.5896423368249089</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>10.382004696410149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>3.227089458348928</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0.1369732065795688</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>4.9049707589147147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0.69241867397795431</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>-0.52321194441174157</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2.1084905559546314</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>-0.49092488249880262</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3.413371026297682</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1.2735744197270833</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3.9740233508637175</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>8.445258466352243</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>4.3192561709729489</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>-9.369127944111824</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>-1.9884420150192454</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1.4407168085454032</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>10.115136213542428</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3.0361467300535878</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>-1.8067590796563309</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0.33925051259575412</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>-9.8773535834625363</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>5.4230757844634354</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2.5324856172373984</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2.718528442826937</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2.818851392774377</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3.5297863481246168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>9.9275188252504449</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0.3533476804732345</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>5.8670797291852068</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>-6.0258708951296285</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>-4.2800503403414041</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0.83068460601498373</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>9.0677280089294072</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1.4700025379424915</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2.3616143001418095</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>-5.8046817836584523</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>-4.6090600487077609</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>3.4832656941289315</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>-1.8043375500128604</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>3.2144531663361704</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>-4.6866854215040803</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>-0.61798129233648069</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>-5.24707058200147</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>7.9997879614238627</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>3.6916422989888815</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>-0.34213723363063764</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>7.8170932132052258</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>-7.0325905805220827</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0.71579837215540465</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0.48705477031762712</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>5.3613210942130536</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>-3.0074626162531786</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>-4.8807033787597902</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>7.7281932433834299E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>4.6968158433883218</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>3.087021589934011</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>4.3525550457416102</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>-4.4977378972107545</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>-2.575122941081645</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>10.176731742219999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>-3.4162009039137047</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>8.6029875850072131</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0.80754933453863487</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>-1.6347395254997537</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>7.7045432438608259</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>-2.015567694499623</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>0.1126044329139404</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>-1.5519072955357842</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>0.3158651300764177</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>-2.5276586863328703</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>5.776482688204851</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>0.23555674790986814</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1.3553607307840139</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>10.724315764789935</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2.9634724190400448</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2.490597701878869</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>9.3096194935496897</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1.8054923960589804</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>3.5009439973946428</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>0.15183207626978401</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>5.7863052309839986</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>4.7952004327526083</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>-2.1281858759466559</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2.2039306562219281</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2.569740793958772</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>-1.2383817344671115</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>4.909495495056035</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>3.4022410848847358</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>-2.3813323575013783</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>-2.167169092601398</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>-5.7037747610593215E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>11.861115929903463</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>5.3442339625034947</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>7.4572061597136781</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>-2.4445649766421411</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>5.8878503144369461</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>4.7817455955082551</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2.0781589076505043</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>0.49009020888479427</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>6.2958951123873703</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>-0.26742792822187766</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>3.7542553248640615</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>5.7916655653825728</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>8.0805169848899823</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>8.391586910263868</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>3.355828433384886</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>-7.6223069451516494</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>5.2752885797672207</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>-12.683326637372375</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>4.2765326573571656</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>-2.5658802011748776</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>8.4307406571751926</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>-0.49385800291202031</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>5.9114775765920058E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2.9772398950881325</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>6.5551465771277435</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>13.820440365932882</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2.0839967267675092</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>7.3272507355140988</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>9.844584277132526</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>-0.31444880430353805</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>3.6009997832734371</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>0.7856305122259073</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>5.5909344003594015</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>8.1146116675226949</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>11.551182872906793</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2.8353075625345809</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>-0.66885615221690387</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>6.3474009342171485</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>-1.8231868277071044</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>7.8752099246485159</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>-4.9073060987866484</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>-0.89752585761016235</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>-0.33067191604641266</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>-3.1802893469575793</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>4.5528598851233255</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2.4767563293862622</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2.506360381928971</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2.8360749486892018</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>-3.2716367210668977</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>-3.9224338863277808E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>8.7933675634558313</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>6.265057557655382</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>4.3525550457416102</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>4.3414478416962083</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1.803917833356536</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1.9525804267032072</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>-0.47581590176559985</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1.7459773365117144</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>8.3412350098369643</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>5.392584974586498</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>-1.7320099838543683</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>4.8131572687707376</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1.9736863881262252</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>-4.5166099122725427</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>-4.1596332418266684</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>-7.4633727460168302</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>0.22441543781314977</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>4.920614067785209</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>-2.207130016060546</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>-3.1728997025056742</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>6.6358983379614074</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>11.374945537070744</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>-3.4266714616678655</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>2.7629572590085445</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>3.712498149368912</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>-2.9179001254960895</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>-0.92453216591093224</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>4.6551439330214635</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>4.2567852536449209</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>3.8406459528487176</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>-7.3272213891614228</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>-2.3196345106698573</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>-1.5966658035467844</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>6.9318251765507739</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>3.3819081939582247</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>-7.1199930213624611</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>4.4241095414035954</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1.5882368491729721</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>5.530754272811464</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>3.4022410848847358</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>0.16486627221456729</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>-2.4224756240728311</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>13.14086592476815</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>3.404156708100345</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>0.79870449856389314</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>-5.9775312517303973</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>5.571272261775448</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>4.8585751604405232</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>5.7876467356691137</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>-1.575110779114766</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>-4.8464381658704951</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>-1.1169073483615648</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>-7.575286069069989</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>3.3961019956477685</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>3.142881617648527</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1.4688031418045284</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>5.945887445093831</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>-0.51243443219573237</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1.4784210482757771</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1.2999440817366121</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>-0.96682935388525948</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>5.5800090952543542</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1.0344284722377779</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>-3.9245288614183664</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1.1999053488834761</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>11.250049177149776</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>7.1919975046766922</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>-0.51928974851034582</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>9.2523668020730838</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>5.2629933482676279</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>3.9954760571417864</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>-0.74690785065467935</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>1.9244145126576768</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>0.55237354293058161</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>-1.8721403800300322</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>5.4050279989751289</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>-0.30445573126780801</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>3.881408368513803</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>7.482876647671219</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>-1.0544250623497646</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>-6.6115400083363056</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>9.8192775870556943</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>5.6832481125893537</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>-4.9829987953417003</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>-2.8948444348061457</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>-0.81819518224801868</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>4.1151541912113316</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>5.8660028415033594E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>9.5699623519321904</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>-0.25749169860500842</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>-6.9899807537440211</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>-1.3017166717618238</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>13.311123332940042</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>-3.4153255152632482</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>5.2291487766779028</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>4.0994767762895208</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>-1.652986262954073</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>-0.89545107282174286</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>6.1401441447087564</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>3.5782794687547721</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>4.9945332496718038</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>0.61256503916229121</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>-7.015446605393663</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>1.2800716225028737</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>8.3001372180006001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>4.5854027424211381</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>5.8734007173625287</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>1.5957970238814596</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>3.8973415788204875</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>6.8603161556238774</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>0.9934500515810214</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>-0.81870677301776595</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>11.143024388118647</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>12.18034857022576</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>14.181600712006912</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>-1.0901227293943521</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>5.3126858650357462</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>2.4825202520587482</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>0.10356632931507193</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>3.9105633580475114</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>-1.7758931032149121</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>-0.71658757103432436</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>-1.0623945096740499</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>-1.7879780140647199</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>13.412668416392989</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>6.8269035940174945</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>-0.61301317752804607</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>-1.4977582547289785</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>0.28001967014279217</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>8.0485823521739803</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>7.5195861275715288</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>6.3896299100888427</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>5.6616248760547023</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>-2.445258466352243</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>7.285686827643076</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>8.3847543313167989</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>-2.8016098591906484</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>6.8279324598988751</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>6.8346001929312479</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>2.5954567566514015</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>-4.5368006946519017</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>3.7550283953605685</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>8.2328573474369477</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>-0.68589780919137411</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>-3.6497022999101318</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>6.1732952265883796</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>12.023915481520817</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>6.2009438655222766</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>5.7080204745288938</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>2.4271149716951186</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>-1.2433157432242297</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>5.4644577933941036</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>2.7951192653999897</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>2.9753299562144093</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>-2.0231733439431991</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>8.8053501561516896</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>5.6960663035424659</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>3.2025842604780337</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>10.468429430446122</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>2.1733147908234969</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>0.10718157075461932</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>1.2865631409367779</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>5.3386860448226798</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>-1.1936232264561113</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>-0.33067191604641266</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>6.2797515814309008</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>1.2043959789734799</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>4.9387414340599207</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>4.7862248569144867</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>6.4787376534950454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>4.8946934687846806</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>-2.5434125447645783E-2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>10.378594091278501</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>4.0763642421807162</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>3.8135032203426817</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>7.355126748123439</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>13.42608346324414</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>9.5150516093126498</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>8.154788595973514</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>-0.17563717544544488</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>4.5384102880489081</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>-1.1244334170187358</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>4.3010492239118321</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>-3.812501851527486</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>5.9518048449972412</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>5.4756900529609993</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>-0.40456836056546308</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>2.2105188084678957</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>-5.3968188846483827</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>8.8749719755724072</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>0.62327433927566744</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>10.3267301559099</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>4.495561718911631</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>4.322428033745382</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>-2.9925355344603304</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>6.718605512403883</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>10.238350008265115</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>3.2558067535574082</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>6.8783809941378422</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>5.8297449716774281</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>6.1182821658148896</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>7.6801915232208557</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>6.8628968468401581</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>5.4489168026775587</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>6.5551465771277435</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>0.54762711745570414</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>1.2341421400633408</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>3.7805738277966157</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>-5.3609847933985293</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>2.075043888296932</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>-8.723386705853045</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>10.014455150056165</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>-0.41566988026897889</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>2.8295663772296393</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>1.9283310242171865</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D7:D17">
+    <sortCondition ref="D7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TerVer/ргр_бином.xlsx
+++ b/TerVer/ргр_бином.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="A">Лист4!$A$1:$A$500</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Вероятность</t>
   </si>
@@ -154,6 +155,27 @@
   </si>
   <si>
     <t>Частота</t>
+  </si>
+  <si>
+    <t>F(0&lt; x ≤1) = 0.636</t>
+  </si>
+  <si>
+    <t>F(1&lt; x ≤2) = 0.311 + 0.636 = 0.947</t>
+  </si>
+  <si>
+    <t>F(2&lt; x ≤3) = 0.0506 + 0.947 = 0.997</t>
+  </si>
+  <si>
+    <t>оценка</t>
+  </si>
+  <si>
+    <t>43*%</t>
+  </si>
+  <si>
+    <t>окр 43*%</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -1059,34 +1081,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.54700000000000004</c:v>
+                  <c:v>0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54700000000000004</c:v>
+                  <c:v>0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54700000000000004</c:v>
+                  <c:v>0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54700000000000004</c:v>
+                  <c:v>0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54700000000000004</c:v>
+                  <c:v>0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54700000000000004</c:v>
+                  <c:v>0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54700000000000004</c:v>
+                  <c:v>0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54700000000000004</c:v>
+                  <c:v>0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54700000000000004</c:v>
+                  <c:v>0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54700000000000004</c:v>
+                  <c:v>0.63600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,34 +1184,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.90300000000000002</c:v>
+                  <c:v>0.94699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90300000000000002</c:v>
+                  <c:v>0.94699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90300000000000002</c:v>
+                  <c:v>0.94699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90300000000000002</c:v>
+                  <c:v>0.94699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90300000000000002</c:v>
+                  <c:v>0.94699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90300000000000002</c:v>
+                  <c:v>0.94699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90300000000000002</c:v>
+                  <c:v>0.94699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90300000000000002</c:v>
+                  <c:v>0.94699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90300000000000002</c:v>
+                  <c:v>0.94699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90300000000000002</c:v>
+                  <c:v>0.94699999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,34 +1287,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4170,8 +4192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4390,7 +4412,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> _xlfn.BINOM.DIST(A6,3,$B$1,FALSE)</f>
         <v>2.7440000000000008E-3</v>
       </c>
       <c r="D6">
@@ -4561,6 +4583,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="K20">
         <v>-0.6</v>
       </c>
@@ -4568,7 +4593,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="J22" t="s">
         <v>22</v>
       </c>
@@ -4580,19 +4613,25 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="K23">
         <v>0.1</v>
       </c>
       <c r="L23">
-        <v>0.54700000000000004</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="K24">
         <v>0.2</v>
       </c>
       <c r="L24">
-        <v>0.54700000000000004</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -4600,7 +4639,7 @@
         <v>0.3</v>
       </c>
       <c r="L25">
-        <v>0.54700000000000004</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -4608,7 +4647,7 @@
         <v>0.4</v>
       </c>
       <c r="L26">
-        <v>0.54700000000000004</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -4616,7 +4655,7 @@
         <v>0.5</v>
       </c>
       <c r="L27">
-        <v>0.54700000000000004</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4624,7 +4663,7 @@
         <v>0.6</v>
       </c>
       <c r="L28">
-        <v>0.54700000000000004</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4632,7 +4671,7 @@
         <v>0.7</v>
       </c>
       <c r="L29">
-        <v>0.54700000000000004</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4640,7 +4679,7 @@
         <v>0.8</v>
       </c>
       <c r="L30">
-        <v>0.54700000000000004</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4648,7 +4687,7 @@
         <v>0.9</v>
       </c>
       <c r="L31">
-        <v>0.54700000000000004</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -4656,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>0.54700000000000004</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="34" spans="10:12" x14ac:dyDescent="0.25">
@@ -4675,7 +4714,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L35">
-        <v>0.90300000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="36" spans="10:12" x14ac:dyDescent="0.25">
@@ -4683,7 +4722,7 @@
         <v>1.2</v>
       </c>
       <c r="L36">
-        <v>0.90300000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="37" spans="10:12" x14ac:dyDescent="0.25">
@@ -4691,7 +4730,7 @@
         <v>1.3</v>
       </c>
       <c r="L37">
-        <v>0.90300000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="38" spans="10:12" x14ac:dyDescent="0.25">
@@ -4699,7 +4738,7 @@
         <v>1.4</v>
       </c>
       <c r="L38">
-        <v>0.90300000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="39" spans="10:12" x14ac:dyDescent="0.25">
@@ -4707,7 +4746,7 @@
         <v>1.5</v>
       </c>
       <c r="L39">
-        <v>0.90300000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="40" spans="10:12" x14ac:dyDescent="0.25">
@@ -4715,7 +4754,7 @@
         <v>1.6</v>
       </c>
       <c r="L40">
-        <v>0.90300000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="41" spans="10:12" x14ac:dyDescent="0.25">
@@ -4723,7 +4762,7 @@
         <v>1.7</v>
       </c>
       <c r="L41">
-        <v>0.90300000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="42" spans="10:12" x14ac:dyDescent="0.25">
@@ -4731,7 +4770,7 @@
         <v>1.8</v>
       </c>
       <c r="L42">
-        <v>0.90300000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="43" spans="10:12" x14ac:dyDescent="0.25">
@@ -4739,7 +4778,7 @@
         <v>1.9</v>
       </c>
       <c r="L43">
-        <v>0.90300000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="44" spans="10:12" x14ac:dyDescent="0.25">
@@ -4747,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="L44">
-        <v>0.90300000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="46" spans="10:12" x14ac:dyDescent="0.25">
@@ -4766,7 +4805,7 @@
         <v>2.1</v>
       </c>
       <c r="L47">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="48" spans="10:12" x14ac:dyDescent="0.25">
@@ -4774,7 +4813,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L48">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="49" spans="10:12" x14ac:dyDescent="0.25">
@@ -4782,7 +4821,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L49">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="50" spans="10:12" x14ac:dyDescent="0.25">
@@ -4790,7 +4829,7 @@
         <v>2.4</v>
       </c>
       <c r="L50">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="51" spans="10:12" x14ac:dyDescent="0.25">
@@ -4798,7 +4837,7 @@
         <v>2.5</v>
       </c>
       <c r="L51">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="52" spans="10:12" x14ac:dyDescent="0.25">
@@ -4806,7 +4845,7 @@
         <v>2.6</v>
       </c>
       <c r="L52">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="53" spans="10:12" x14ac:dyDescent="0.25">
@@ -4814,7 +4853,7 @@
         <v>2.7</v>
       </c>
       <c r="L53">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="54" spans="10:12" x14ac:dyDescent="0.25">
@@ -4822,7 +4861,7 @@
         <v>2.8</v>
       </c>
       <c r="L54">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="55" spans="10:12" x14ac:dyDescent="0.25">
@@ -4830,7 +4869,7 @@
         <v>2.9</v>
       </c>
       <c r="L55">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="56" spans="10:12" x14ac:dyDescent="0.25">
@@ -4838,7 +4877,7 @@
         <v>3</v>
       </c>
       <c r="L56">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="58" spans="10:12" x14ac:dyDescent="0.25">
@@ -4900,6 +4939,544 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <f xml:space="preserve"> _xlfn.BINOM.DIST(A1,43,0.77,0)</f>
+        <v>3.5834136918934101E-28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:B44" si="0" xml:space="preserve"> _xlfn.BINOM.DIST(A2,43,0.77,0)</f>
+        <v>5.1585577103735047E-26</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <f xml:space="preserve"> 43 * 0.87</f>
+        <v>37.409999999999997</v>
+      </c>
+      <c r="F2" s="3">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3">
+        <f xml:space="preserve"> SUM(B39:B44)</f>
+        <v>4.8604322257349029E-2</v>
+      </c>
+      <c r="H2">
+        <f xml:space="preserve"> G2 * D2</f>
+        <v>0.24302161128674515</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> (D2 ^ 2) * G2</f>
+        <v>1.2151080564337258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6266903555104053E-24</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <f>43 *0.73</f>
+        <v>31.39</v>
+      </c>
+      <c r="F3" s="3">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3">
+        <f xml:space="preserve"> SUM(B33:B38)</f>
+        <v>0.67863630929334506</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="1" xml:space="preserve"> G3 * D3</f>
+        <v>2.7145452371733803</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="2" xml:space="preserve"> (D3 ^ 2) * G3</f>
+        <v>10.858180948693521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6593422394704943E-22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <f>43 * 0.6</f>
+        <v>25.8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3">
+        <f xml:space="preserve"> SUM(B27:B32)</f>
+        <v>0.26817478131615985</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.80452434394847949</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2.4135730318454387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5551892364881909E-21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f xml:space="preserve"> SUM(B1:B26)</f>
+        <v>4.5845871331460421E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>9.1691742662920843E-3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1.8338348532584169E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4506289806238203E-19</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <f xml:space="preserve"> SUM(G2:G5)</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f xml:space="preserve"> SUM(H2:H5)</f>
+        <v>3.7712603666748965</v>
+      </c>
+      <c r="I6">
+        <f xml:space="preserve"> SUM(I2:I5)</f>
+        <v>14.505200385505269</v>
+      </c>
+      <c r="J6">
+        <f xml:space="preserve"> I6 - H6^2</f>
+        <v>0.28279563225239457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.0757539110908003E-18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>5.4427471383215838E-17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1996168844713875E-16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0675346620120929E-14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2151329326728896E-13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2204161193366954E-12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.08953091233537E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>8.6980277182091422E-11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2398894500195586E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>4.038745838230056E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>2.366178268267394E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2581290587539451E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0839960763898665E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>2.680021154931458E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0766693683289851E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9477876838729413E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.321650659383548E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0399038113860197E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1270746140460987E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8676698440859866E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6464722473297232E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4010035703308561E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>2.680180743241635E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6410925913704555E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>7.2508663963729653E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.101796876055671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12779933896119564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14261665362336323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14042816277492287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12089033143232499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" si="0"/>
+        <v>8.9937734495546151E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" si="0"/>
+        <v>5.6964088005992196E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" si="0"/>
+        <v>3.0111451554654906E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2924090132154009E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3267606094602564E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0598957590512387E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6896888912411068E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3155312904506081E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f xml:space="preserve"> SUM(B1:B44)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -5159,11 +5736,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7:G17"/>
     </sheetView>
   </sheetViews>
@@ -7927,7 +8504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
